--- a/MLP/Results.xlsx
+++ b/MLP/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alain\Documents\GitHub\neuralnetwork\MLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C704EB50-FCA5-4EC8-9ABF-33A67A85A48A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5E328C-12E9-4734-81EE-313C0A84C495}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="915" windowWidth="21600" windowHeight="11340" xr2:uid="{2FEDFDCD-8584-4D04-981D-52F41E817548}"/>
+    <workbookView xWindow="1890" yWindow="3375" windowWidth="14340" windowHeight="11340" xr2:uid="{2FEDFDCD-8584-4D04-981D-52F41E817548}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +717,7 @@
         <v>0.68786151691796804</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" ref="H8:H9" si="3">_xlfn.VAR.S(B8:G8)</f>
+        <f t="shared" ref="H8" si="3">_xlfn.VAR.S(B8:G8)</f>
         <v>3.3690643435306047E-3</v>
       </c>
     </row>
